--- a/SET100.xlsx
+++ b/SET100.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StocksAdd" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UpdateSeq" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StocksAdd" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +427,572 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>update_seq</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>date_from</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date_to</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>date_published</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Update_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2014-01-01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2014-06-30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2013-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Update_2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2014-07-01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2014-12-31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2020-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Update_3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2015-01-01</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2015-06-30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2020-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Update_4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2015-01-01</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2015-06-30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2015-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Update_5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2015-07-01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2015-12-31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2015-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Update_6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2016-01-01</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2016-06-30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2015-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Update_7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2016-01-01</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2016-06-30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2015-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Update_8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2016-07-01</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2016-12-31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2016-06-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Update_9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2016-07-01</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2016-12-31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2016-12-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Update_10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2017-01-01</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2017-06-30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2016-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Update_11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2017-07-01</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2017-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Update_12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2018-01-01</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2018-06-30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2017-12-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Update_13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2018-07-01</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2018-12-31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2018-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Update_14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2019-06-30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2018-12-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Update_15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2019-06-30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2019-05-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Update_16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2019-07-01</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2019-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Update_17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2019-07-01</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2019-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Update_18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Update_19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Update_20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Update_21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2020-10-22</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SET100.xlsx
+++ b/SET100.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chayapan/Dropbox (Personal)/MU_ICT/Thesis-D_Workspace/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7826612D-41B1-C142-ACFA-C29CA1F8BC0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A9CBD7-0327-0445-A499-55417E3F187A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="460" windowWidth="19740" windowHeight="14480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="2260" windowWidth="29860" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdateSeq" sheetId="1" r:id="rId1"/>
     <sheet name="StocksAdd" sheetId="2" r:id="rId2"/>
     <sheet name="SET100Union" sheetId="3" r:id="rId3"/>
-    <sheet name="StockWithData" sheetId="4" r:id="rId4"/>
+    <sheet name="ExplainStockWithData" sheetId="4" r:id="rId4"/>
+    <sheet name="ExplainTickerFromSet" sheetId="6" r:id="rId5"/>
+    <sheet name="ExplainTickerGone" sheetId="5" r:id="rId6"/>
+    <sheet name="ExplainObsCount" sheetId="7" r:id="rId7"/>
+    <sheet name="ExplainFinalList" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="311">
   <si>
     <t>update_seq</t>
   </si>
@@ -852,9 +865,6 @@
     <t>WORK</t>
   </si>
   <si>
-    <t>Date,Price,MV,VA,VO,DY</t>
-  </si>
-  <si>
     <t>LHFG</t>
   </si>
   <si>
@@ -865,13 +875,112 @@
   </si>
   <si>
     <t>Change symbol to PSH.</t>
+  </si>
+  <si>
+    <t>SET100_calc_from</t>
+  </si>
+  <si>
+    <t>SET100_calc_to</t>
+  </si>
+  <si>
+    <t>2014-12-15</t>
+  </si>
+  <si>
+    <t>info_published</t>
+  </si>
+  <si>
+    <t>stock_tickers_added</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Agro &amp; Food Industry</t>
+  </si>
+  <si>
+    <t>Agribusiness</t>
+  </si>
+  <si>
+    <t>Food &amp; Beverage</t>
+  </si>
+  <si>
+    <t>Financials</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Finance &amp; Securities</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>Petrochemicals &amp; Chemicals</t>
+  </si>
+  <si>
+    <t>Property &amp; Construction</t>
+  </si>
+  <si>
+    <t>Construction Materials</t>
+  </si>
+  <si>
+    <t>Construction Services</t>
+  </si>
+  <si>
+    <t>Property Development</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Energy &amp; Utilities</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>Health Care Services</t>
+  </si>
+  <si>
+    <t>Media &amp; Publishing</t>
+  </si>
+  <si>
+    <t>Tourism &amp; Leisure</t>
+  </si>
+  <si>
+    <t>Transportation &amp; Logistics</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Electronic Components</t>
+  </si>
+  <si>
+    <t>Information &amp; Communication Technology</t>
+  </si>
+  <si>
+    <t>ObservationCount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -883,7 +992,7 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -892,6 +1001,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -929,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -941,9 +1056,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1260,11 +1376,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -1327,8 +1448,8 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="E4" s="5">
+        <v>41967</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1648,12 +1769,13 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="78.33203125" customWidth="1"/>
+    <col min="2" max="2" width="81.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1839,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2729,7 +2851,7 @@
         <v>205</v>
       </c>
       <c r="C101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -3266,1219 +3388,1176 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B132" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151" s="2" t="s">
+      <c r="B146" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4490,4 +4569,5335 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BD5B87-D183-9646-A5CC-906CA38C19F6}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE78828-5A40-0045-A6C4-DBCF3259C577}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AB39DE-327D-9746-8FD2-FF36361463CE}">
+  <dimension ref="A1:E151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="7">
+        <v>522</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1335</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="7">
+        <v>783</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="7">
+        <v>783</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="7">
+        <v>261</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1335</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" s="7">
+        <v>1335</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C74" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="7">
+        <v>1074</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="7">
+        <v>783</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="7">
+        <v>1074</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="7">
+        <v>1335</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" s="7">
+        <v>783</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C91" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C92" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C93" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94" s="7">
+        <v>1335</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1335</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="7">
+        <v>783</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C102" s="7">
+        <v>783</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" s="7">
+        <v>1335</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C110" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C112" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C114" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C115" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C116" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C118" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C122" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" s="7">
+        <v>1335</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C124" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C127" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C129" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C130" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C131" s="7">
+        <v>1074</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C133" s="7">
+        <v>1335</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C134" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C135" s="7">
+        <v>783</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C136" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C137" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C138" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C139" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C140" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C141" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C142" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C143" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C144" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C145" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C146" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C147" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C148" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C149" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C150" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C151" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0C60EC-BB08-824A-80E3-8ECEE43676C9}">
+  <dimension ref="A1:E130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C106" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C107" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C109" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C112" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C115" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C124" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C125" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C127" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C129" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" s="7">
+        <v>1596</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>